--- a/DB/members.xlsx
+++ b/DB/members.xlsx
@@ -19,145 +19,149 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+  <si>
+    <t>member_role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s26153</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>loria</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0000002</t>
+  </si>
+  <si>
+    <t>S0000003</t>
+  </si>
+  <si>
+    <t>S0000004</t>
+  </si>
+  <si>
+    <t>S0000005</t>
+  </si>
+  <si>
+    <t>student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stuff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鍾博凱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃思嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵二</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>江陵五</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教務處課務組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課務組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>課務組</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公共事務與公民教育學系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公育系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>數學系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化學系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財務金融技術學系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>財金系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔諮系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>輔導與諮商學系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_unit_short</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>member_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_role</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s26153</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>loria</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0000001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S0000002</t>
-  </si>
-  <si>
-    <t>S0000003</t>
-  </si>
-  <si>
-    <t>S0000004</t>
-  </si>
-  <si>
-    <t>S0000005</t>
-  </si>
-  <si>
-    <t>student</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鍾博凱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃思嘉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江陵一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江陵二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江陵三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江陵四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>江陵五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>教務處課務組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課務組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>課務組</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公共事務與公民教育學系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公育系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>數學系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化學系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>財務金融技術學系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>財金系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輔諮系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>輔導與諮商學系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>admin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_unit_short</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -484,180 +488,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/DB/members.xlsx
+++ b/DB/members.xlsx
@@ -25,10 +25,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>s26153</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -162,6 +158,10 @@
   </si>
   <si>
     <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,7 +491,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -506,25 +506,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -532,22 +532,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -555,22 +555,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -578,22 +578,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -601,22 +601,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -624,22 +624,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -647,22 +647,22 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -670,22 +670,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
